--- a/data/trans_bre/P20-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P20-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.043648363137609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.681544412499195</v>
+        <v>-1.681544412499193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7180404488130115</v>
@@ -649,7 +649,7 @@
         <v>0.6034819324571131</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1742605144349721</v>
+        <v>-0.174260514434972</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.244590108637353</v>
+        <v>1.237585289590584</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4783611111622032</v>
+        <v>0.8038040208872124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9671396681500993</v>
+        <v>1.116846686341495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.149252788470521</v>
+        <v>-4.994601459828093</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.151830070825776</v>
+        <v>0.1636898409284157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04334701029559113</v>
+        <v>0.07517174251568209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1369489233827854</v>
+        <v>0.1789644418892496</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4222518772379037</v>
+        <v>-0.4208363434225681</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.630000316133665</v>
+        <v>6.552217878661551</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.737593572104599</v>
+        <v>6.049913282553852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.156816307261013</v>
+        <v>5.151241402725342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.426695805466181</v>
+        <v>1.421689082129977</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.66442644820842</v>
+        <v>1.611435119443715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7799852109356692</v>
+        <v>0.8101681126831911</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.275997747769079</v>
+        <v>1.277256825720601</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1976848846460279</v>
+        <v>0.2043275001490437</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.832227787587697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7508610401101311</v>
+        <v>0.7508610401101297</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5330197064194482</v>
@@ -749,7 +749,7 @@
         <v>0.6016025975103949</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1411689431899128</v>
+        <v>0.1411689431899125</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4574007025292583</v>
+        <v>0.3726268171123396</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.110304495409892</v>
+        <v>3.584260642534959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6321103514634483</v>
+        <v>0.7649594391209856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.282427919462351</v>
+        <v>-1.061704696345966</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08590162823639524</v>
+        <v>0.06072232978308954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5203768895146724</v>
+        <v>0.5947533458273985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.119056506338282</v>
+        <v>0.1404146365274002</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2000891008790383</v>
+        <v>-0.1749291658348573</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.045379181796926</v>
+        <v>3.811553506708349</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.983538716743241</v>
+        <v>7.973081212742193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.038428089903597</v>
+        <v>5.012655027478033</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.529461302574375</v>
+        <v>2.605395198384906</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.37361428521397</v>
+        <v>1.308697393669641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.234188766404674</v>
+        <v>2.327317841796467</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.413696627020463</v>
+        <v>1.378965493347658</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5770071828380342</v>
+        <v>0.6172108018862001</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.464054392229992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8389794425188363</v>
+        <v>0.8389794425188369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.232772603622805</v>
@@ -849,7 +849,7 @@
         <v>0.7220276921950968</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1633548752283027</v>
+        <v>0.1633548752283028</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.294063469950472</v>
+        <v>2.481085605537968</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6260529953342314</v>
+        <v>-0.5789659668214749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9758833198489855</v>
+        <v>0.9184953632978224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.167282320043081</v>
+        <v>-1.344334137196864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5267881718296987</v>
+        <v>0.5331889120020489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1129478221676155</v>
+        <v>-0.1079399385088761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1531107263857303</v>
+        <v>0.1511416299192542</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1921401077941836</v>
+        <v>-0.2109254643410601</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.351562697927286</v>
+        <v>6.134051946695233</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.896167081519082</v>
+        <v>3.794157096208844</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.884019529523357</v>
+        <v>6.036199083294024</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.879896126965961</v>
+        <v>2.626325876373541</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.304413898984733</v>
+        <v>2.365957225669605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.010411341084799</v>
+        <v>1.07350361555734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.590364399856968</v>
+        <v>1.559523982508496</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6657049105136177</v>
+        <v>0.6197677619847655</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.130368134344754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.53086469533939</v>
+        <v>1.530864695339387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2500644051352791</v>
@@ -949,7 +949,7 @@
         <v>0.5116692825161117</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2974627728762103</v>
+        <v>0.2974627728762096</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.031749965769279</v>
+        <v>-1.954463986049365</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.845316917061279</v>
+        <v>-1.701195022727758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6960740706399952</v>
+        <v>-0.698777589792817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6647893159201106</v>
+        <v>-0.6020523866968815</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3367965635102473</v>
+        <v>-0.3749056721386385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2218480591497738</v>
+        <v>-0.2075758779214035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1481785757398176</v>
+        <v>-0.1418109276314084</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1130699170929879</v>
+        <v>-0.1061520507392784</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.696766088799063</v>
+        <v>4.727356368332181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.967672263001484</v>
+        <v>5.992061078065239</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.236186667222531</v>
+        <v>5.521174978324735</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.642005526650358</v>
+        <v>3.893321100915782</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.291015887889641</v>
+        <v>1.389327735700137</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.338188766993078</v>
+        <v>1.256638681597973</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.645747229807396</v>
+        <v>1.8242590852595</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8230952722161268</v>
+        <v>0.9088660698697469</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.959843372112752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6765657980603197</v>
+        <v>0.6765657980603211</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7941796481680927</v>
@@ -1049,7 +1049,7 @@
         <v>0.621771286824562</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1159303450957888</v>
+        <v>0.115930345095789</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.090536235515352</v>
+        <v>2.060533288630093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.091225236643167</v>
+        <v>2.055554805359802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.82608651003058</v>
+        <v>1.752650226715886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3984755622904471</v>
+        <v>-0.4764154683981165</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4566341446826052</v>
+        <v>0.4359134097007635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3009951956903177</v>
+        <v>0.2985071086461544</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3433943326424355</v>
+        <v>0.3224604962354411</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06503246627325211</v>
+        <v>-0.0760550493464071</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.35174292625866</v>
+        <v>4.426132127056384</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.660992696701278</v>
+        <v>4.788704133701869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.169226199016669</v>
+        <v>4.119553197429745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.83909549433849</v>
+        <v>1.753540175150364</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.201277905715659</v>
+        <v>1.207643917289663</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8325389185448546</v>
+        <v>0.8601862135010502</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9837324717799766</v>
+        <v>0.9762249810439716</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3480000328843745</v>
+        <v>0.3421509606633115</v>
       </c>
     </row>
     <row r="19">
